--- a/README.xlsx
+++ b/README.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA37327-9713-4B84-80EA-5C7185171266}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB62A9D-F597-4379-8139-78456CCE3C7C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Steps to follow:</t>
   </si>
@@ -31,13 +31,10 @@
     <t xml:space="preserve">2. Create excel file for TEST CASES </t>
   </si>
   <si>
-    <t>3. Create POM file for given module</t>
+    <t>3. Create Automation testing scripts/Excel sheet USING GIVEN FRAMEWORK</t>
   </si>
   <si>
-    <t>4. Create Automation testing scripts/Excel sheet USING GIVEN FRAMEWORK</t>
-  </si>
-  <si>
-    <t>5. Document Progress in "personal progress"</t>
+    <t>4. Document Progress in "personal progress"</t>
   </si>
 </sst>
 </file>
@@ -370,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,22 +395,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/README.xlsx
+++ b/README.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB62A9D-F597-4379-8139-78456CCE3C7C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3862F9-2F07-4FFE-9972-9AC0EEA1DC3F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Steps to follow:</t>
   </si>
@@ -35,19 +35,31 @@
   </si>
   <si>
     <t>4. Document Progress in "personal progress"</t>
+  </si>
+  <si>
+    <t>git config --global http.proxy http://192.168.100.1:8081</t>
+  </si>
+  <si>
+    <t>github proxy set (for office pc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF242729"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -79,13 +91,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -367,20 +379,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>

--- a/README.xlsx
+++ b/README.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3862F9-2F07-4FFE-9972-9AC0EEA1DC3F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF3F6B2-4BDD-4BB7-801F-7B680AC13C92}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Steps to follow:</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>github proxy set (for office pc)</t>
+  </si>
+  <si>
+    <t>User Credentials for Group 4:</t>
+  </si>
+  <si>
+    <t>ID: beta10</t>
+  </si>
+  <si>
+    <t>Password: beta@123</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -98,6 +107,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,19 +391,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -399,33 +413,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+    <row r="8" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:A8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>

--- a/README.xlsx
+++ b/README.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF3F6B2-4BDD-4BB7-801F-7B680AC13C92}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1EC3E0C3-7E66-42D6-857A-E312CD8C9D54}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Steps to follow:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>1. Create excel file for TEST SCENARIOS</t>
   </si>
@@ -37,19 +34,208 @@
     <t>4. Document Progress in "personal progress"</t>
   </si>
   <si>
-    <t>git config --global http.proxy http://192.168.100.1:8081</t>
-  </si>
-  <si>
-    <t>github proxy set (for office pc)</t>
-  </si>
-  <si>
-    <t>User Credentials for Group 4:</t>
-  </si>
-  <si>
-    <t>ID: beta10</t>
-  </si>
-  <si>
-    <t>Password: beta@123</t>
+    <t>Steps to follow for each module:</t>
+  </si>
+  <si>
+    <t>PROJECT STRUCTURE:</t>
+  </si>
+  <si>
+    <t>Framework.java</t>
+  </si>
+  <si>
+    <t>This is the main java file that performs instructions as per the keyword passed</t>
+  </si>
+  <si>
+    <t>KDTExecuter.java</t>
+  </si>
+  <si>
+    <t>This java file reads KDT excel sheet line by line and calls framework to perform actions</t>
+  </si>
+  <si>
+    <t>LogRecorder.java</t>
+  </si>
+  <si>
+    <t>This file Creates Log excel sheet for each test case and stores individual steps pass or fail status as well as complete test case pass or fail status</t>
+  </si>
+  <si>
+    <t>OpenBrowser.java</t>
+  </si>
+  <si>
+    <t>Launches browser as per the type of browser passes as parameter</t>
+  </si>
+  <si>
+    <t>ExcelFileSheet</t>
+  </si>
+  <si>
+    <t>Reads Excel file and returns it either as a sheet or as a 2D Object array.</t>
+  </si>
+  <si>
+    <t>Login.java</t>
+  </si>
+  <si>
+    <t>Test case for login</t>
+  </si>
+  <si>
+    <t>Test case for individual membership registration</t>
+  </si>
+  <si>
+    <t>Test case for non individual membership registration</t>
+  </si>
+  <si>
+    <t>CreateFDSingle.java</t>
+  </si>
+  <si>
+    <t>MembershipRegistration.java</t>
+  </si>
+  <si>
+    <t>MembershipRegistrationNonIndividual.java</t>
+  </si>
+  <si>
+    <t>JAVA FILE NAME</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>Test case for creating single FD</t>
+  </si>
+  <si>
+    <t>CreateFDJoint.java</t>
+  </si>
+  <si>
+    <t>Test case for creating joint FD</t>
+  </si>
+  <si>
+    <t>Kewords defined in framework</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <t>OPENBROWSER</t>
+  </si>
+  <si>
+    <t>1.Name of the browser</t>
+  </si>
+  <si>
+    <t>Opens specified browser</t>
+  </si>
+  <si>
+    <t>CLOSEBROWSER</t>
+  </si>
+  <si>
+    <t>Close the open browser</t>
+  </si>
+  <si>
+    <t>GOTOURL</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Opens the given url</t>
+  </si>
+  <si>
+    <t>WAITUNTIL</t>
+  </si>
+  <si>
+    <t>1. locator type                                                                                                        2. locator value</t>
+  </si>
+  <si>
+    <t>Explicit wait until given locator is visible.</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>1. variable name                                                                                                    2. locator type                                                                                                          3. locator value</t>
+  </si>
+  <si>
+    <t>Fetch value from locator and store value which can be refered using given variable name</t>
+  </si>
+  <si>
+    <t>VERIFYTITLE</t>
+  </si>
+  <si>
+    <t>1. value</t>
+  </si>
+  <si>
+    <t>Verifies title to be same as value passed</t>
+  </si>
+  <si>
+    <t>VERIFYTEXTONPAGE</t>
+  </si>
+  <si>
+    <t>Verifies given value is present on page or not.</t>
+  </si>
+  <si>
+    <t>SENDKEYS</t>
+  </si>
+  <si>
+    <t>1. TYPE OF Keyboard key to send                                                                   2. locator type                                                                                                           3. locator value</t>
+  </si>
+  <si>
+    <t>Send given key to the located element</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>Performs click on given location</t>
+  </si>
+  <si>
+    <t>RADIOBUTTON</t>
+  </si>
+  <si>
+    <t>Selects radio button of given value</t>
+  </si>
+  <si>
+    <t>HOVER</t>
+  </si>
+  <si>
+    <t>Performs mouse hover over specified element</t>
+  </si>
+  <si>
+    <t>SETTEXT</t>
+  </si>
+  <si>
+    <t>1. value                                                                                                                       2. locator type                                                                                                             3. locator value</t>
+  </si>
+  <si>
+    <t>If value contains {{ }} it will look for value from parameters passed else it will send value specified to given locator</t>
+  </si>
+  <si>
+    <t>DROPDOWN</t>
+  </si>
+  <si>
+    <t>Performs selecting value from custom drop down list</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>Selects item from &lt;select&gt; dropdown which matches specified value.</t>
+  </si>
+  <si>
+    <t>GETTEXT</t>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
+  </si>
+  <si>
+    <t>1. Seconds</t>
+  </si>
+  <si>
+    <t>Performs thread.sleep for specified seconds.</t>
+  </si>
+  <si>
+    <t>Reads value from given location and stores it in specified variable.</t>
   </si>
 </sst>
 </file>
@@ -65,13 +251,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF242729"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,8 +272,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -93,22 +299,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -391,71 +665,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="45.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="56.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
+    <row r="10" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:A8"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
